--- a/RLC/data.xlsx
+++ b/RLC/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\files\code\磁滞回线\RLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3237F6-41E0-4113-93B9-510327ED28F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A585FA16-417F-4694-8EBC-9745A5754AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="3020" windowWidth="19200" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
